--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/15.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/15.xlsx
@@ -479,13 +479,13 @@
         <v>0.09547071079139886</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.950984717631958</v>
+        <v>-1.865913591559815</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1901857323808255</v>
+        <v>0.1519016214220267</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03618259126397114</v>
+        <v>0.0008535459840166309</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1134476457418265</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.069653324182767</v>
+        <v>-1.980912305398632</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05596048904888042</v>
+        <v>0.06128692631892121</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.009598054732738091</v>
+        <v>-0.05848685649815542</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1362012253646662</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.281231757343285</v>
+        <v>-2.208468830527918</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04217933135775805</v>
+        <v>0.05651673670607464</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02914845210522034</v>
+        <v>-0.06194754641802391</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1589406894178804</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.317221346716157</v>
+        <v>-2.267265793687107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07368905335991621</v>
+        <v>0.08513238509706328</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02091879241385879</v>
+        <v>-0.0591528898771643</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1781433281626284</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.276503042336457</v>
+        <v>-2.23151346345749</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03155268340677663</v>
+        <v>0.06382968562028386</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02007039275250224</v>
+        <v>-0.06363214732720204</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1919209694620238</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.946423730811236</v>
+        <v>-1.938594789004498</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1330190871905836</v>
+        <v>0.1774670565085983</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.04822067166713211</v>
+        <v>-0.06292951870758827</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2020601851975665</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.773064147097105</v>
+        <v>-1.766670348642755</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1271510403595905</v>
+        <v>0.1529994786401732</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.00522309371842427</v>
+        <v>-0.02917406877364376</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2122323162432003</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.361854406992211</v>
+        <v>-1.333082618907975</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1648374290551762</v>
+        <v>0.1627758971677678</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03785445984512212</v>
+        <v>-0.04613047350791652</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2278706291768922</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8266447437010528</v>
+        <v>-0.8409388446813203</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1854161526886557</v>
+        <v>0.1579245881049137</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04426099062749916</v>
+        <v>0.04063440228355521</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2548298525440603</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5099373330928562</v>
+        <v>-0.505207398244675</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08974643501666234</v>
+        <v>0.07123290279465179</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06710922909915816</v>
+        <v>0.05325427100614928</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2983419571829897</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1017734608414573</v>
+        <v>0.0521490947398818</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03544527317196729</v>
+        <v>-0.08883772921449228</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1920344019520489</v>
+        <v>0.173071358191275</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3631129090185917</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5276950975901914</v>
+        <v>0.4671946259808445</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.08054341793139544</v>
+        <v>-0.1745846473964715</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2435281749278572</v>
+        <v>0.2378211471555256</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4537048226142842</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9599013569921374</v>
+        <v>0.8650318552480375</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3804267765921736</v>
+        <v>-0.4646232764138593</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3936875959398453</v>
+        <v>0.3601230511777229</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5709747459297008</v>
       </c>
       <c r="E15" t="n">
-        <v>1.482370387266705</v>
+        <v>1.33568019506406</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7591832474079804</v>
+        <v>-0.8007469018456534</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4107275598068326</v>
+        <v>0.4260005834732807</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7112474243053156</v>
       </c>
       <c r="E16" t="n">
-        <v>2.118836031708192</v>
+        <v>1.899317651177769</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9355564491859232</v>
+        <v>-1.008641414118613</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5129764918189073</v>
+        <v>0.5398642349326687</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8698643577634868</v>
       </c>
       <c r="E17" t="n">
-        <v>2.523213440392154</v>
+        <v>2.310120574191272</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.259942151193701</v>
+        <v>-1.328240458655272</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5373647799993551</v>
+        <v>0.5877064128167863</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.038228205522688</v>
       </c>
       <c r="E18" t="n">
-        <v>2.998458752348828</v>
+        <v>2.715767837724223</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.501193225278012</v>
+        <v>-1.541064959758386</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6400748120430513</v>
+        <v>0.6951512590740777</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.205475653862996</v>
       </c>
       <c r="E19" t="n">
-        <v>3.213448471854397</v>
+        <v>2.934245083659438</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.774230925351724</v>
+        <v>-1.810912164772029</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7844466957533771</v>
+        <v>0.8352378401095716</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.366256088266411</v>
       </c>
       <c r="E20" t="n">
-        <v>3.510352977929938</v>
+        <v>3.223137671725217</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.959707803150808</v>
+        <v>-1.989365196057683</v>
       </c>
       <c r="G20" t="n">
-        <v>1.009745904458019</v>
+        <v>1.019088669384446</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.515988816248447</v>
       </c>
       <c r="E21" t="n">
-        <v>3.808923787294354</v>
+        <v>3.481084104494152</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.245772189038506</v>
+        <v>-2.221888915178405</v>
       </c>
       <c r="G21" t="n">
-        <v>1.130038729771008</v>
+        <v>1.118061717441706</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.649100680482905</v>
       </c>
       <c r="E22" t="n">
-        <v>4.059769523544588</v>
+        <v>3.683248412009063</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.499432099291256</v>
+        <v>-2.444491664571144</v>
       </c>
       <c r="G22" t="n">
-        <v>1.130795031410176</v>
+        <v>1.133006603784064</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.76188772622804</v>
       </c>
       <c r="E23" t="n">
-        <v>4.324059131351703</v>
+        <v>3.916758982784764</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.675716252650393</v>
+        <v>-2.599811624429098</v>
       </c>
       <c r="G23" t="n">
-        <v>1.368638478673495</v>
+        <v>1.3134510260793</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.853608997626499</v>
       </c>
       <c r="E24" t="n">
-        <v>4.463552869489398</v>
+        <v>4.060406280731113</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.829999957278552</v>
+        <v>-2.758729506359188</v>
       </c>
       <c r="G24" t="n">
-        <v>1.471147236893864</v>
+        <v>1.395035235642474</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.924382900949835</v>
       </c>
       <c r="E25" t="n">
-        <v>4.69784901809675</v>
+        <v>4.274928800998294</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.978000259094852</v>
+        <v>-2.861774384854419</v>
       </c>
       <c r="G25" t="n">
-        <v>1.531032298540372</v>
+        <v>1.4775099293937</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.975018498969686</v>
       </c>
       <c r="E26" t="n">
-        <v>4.780995844433753</v>
+        <v>4.397842455459269</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.131327608101869</v>
+        <v>-3.003346427698133</v>
       </c>
       <c r="G26" t="n">
-        <v>1.554419706890277</v>
+        <v>1.473483843006486</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.007514583888239</v>
       </c>
       <c r="E27" t="n">
-        <v>4.939162914010766</v>
+        <v>4.514179945183547</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.090240301712737</v>
+        <v>-2.966211712254665</v>
       </c>
       <c r="G27" t="n">
-        <v>1.548018589387806</v>
+        <v>1.486593478032509</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.020973510881579</v>
       </c>
       <c r="E28" t="n">
-        <v>4.958488860574205</v>
+        <v>4.558517518859071</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.068092862098661</v>
+        <v>-2.927217653628132</v>
       </c>
       <c r="G28" t="n">
-        <v>1.595103855712079</v>
+        <v>1.511017751532885</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.012080064874388</v>
       </c>
       <c r="E29" t="n">
-        <v>4.987468631609212</v>
+        <v>4.589757655922106</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.236647490721371</v>
+        <v>-3.050539040061513</v>
       </c>
       <c r="G29" t="n">
-        <v>1.601923988719476</v>
+        <v>1.515296955000949</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.980203999827382</v>
       </c>
       <c r="E30" t="n">
-        <v>5.006656736099706</v>
+        <v>4.607058665838742</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.169875204793023</v>
+        <v>-2.993336714511682</v>
       </c>
       <c r="G30" t="n">
-        <v>1.584200913694531</v>
+        <v>1.493797861066257</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.925207334443131</v>
       </c>
       <c r="E31" t="n">
-        <v>4.980574088279252</v>
+        <v>4.592024121156902</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.118377772293154</v>
+        <v>-2.939991222361266</v>
       </c>
       <c r="G31" t="n">
-        <v>1.452199441150009</v>
+        <v>1.36765101709784</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.846804482643903</v>
       </c>
       <c r="E32" t="n">
-        <v>4.802724878463579</v>
+        <v>4.492941287377826</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.104933290815597</v>
+        <v>-2.904043717515089</v>
       </c>
       <c r="G32" t="n">
-        <v>1.425028694842237</v>
+        <v>1.360615582091551</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.747289882487275</v>
       </c>
       <c r="E33" t="n">
-        <v>4.644122325523368</v>
+        <v>4.3788373271718</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.16655052718407</v>
+        <v>-2.967421184956657</v>
       </c>
       <c r="G33" t="n">
-        <v>1.307267650258429</v>
+        <v>1.256803423384971</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.629672051887219</v>
       </c>
       <c r="E34" t="n">
-        <v>4.486296811525333</v>
+        <v>4.255142974244587</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.918769642334495</v>
+        <v>-2.733203716116605</v>
       </c>
       <c r="G34" t="n">
-        <v>1.191892005441382</v>
+        <v>1.149306123949479</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.496306296079283</v>
       </c>
       <c r="E35" t="n">
-        <v>4.269038187102261</v>
+        <v>4.050917134842266</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.870537725137935</v>
+        <v>-2.674364058510043</v>
       </c>
       <c r="G35" t="n">
-        <v>1.169188318170113</v>
+        <v>1.103230886265901</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.350757706309877</v>
       </c>
       <c r="E36" t="n">
-        <v>4.101345376395797</v>
+        <v>3.892157222367454</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.825737831589437</v>
+        <v>-2.635164456615445</v>
       </c>
       <c r="G36" t="n">
-        <v>1.152341089236978</v>
+        <v>1.080336903743486</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.199167529732304</v>
       </c>
       <c r="E37" t="n">
-        <v>3.77012673304641</v>
+        <v>3.578632377850529</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.857273170260018</v>
+        <v>-2.64147103641302</v>
       </c>
       <c r="G37" t="n">
-        <v>1.113459256014966</v>
+        <v>1.051205872380645</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.046355627610062</v>
       </c>
       <c r="E38" t="n">
-        <v>3.5403464371297</v>
+        <v>3.402669042767361</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.795702287862978</v>
+        <v>-2.599459700198614</v>
       </c>
       <c r="G38" t="n">
-        <v>1.062297279887308</v>
+        <v>1.01504977466302</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8962471484860521</v>
       </c>
       <c r="E39" t="n">
-        <v>3.311230954750645</v>
+        <v>3.160972116668348</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.801997889088372</v>
+        <v>-2.603335746099348</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9480066839541967</v>
+        <v>0.9138383177220938</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7545207151862336</v>
       </c>
       <c r="E40" t="n">
-        <v>3.07958552140444</v>
+        <v>2.940396743605119</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.852603617558835</v>
+        <v>-2.663955152240661</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8542990810993019</v>
+        <v>0.8169585174274323</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6234372815794114</v>
       </c>
       <c r="E41" t="n">
-        <v>2.772973517837777</v>
+        <v>2.659019598118231</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.721110818858721</v>
+        <v>-2.567391900777231</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8444958260619304</v>
+        <v>0.7971842791665835</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5030644988656322</v>
       </c>
       <c r="E42" t="n">
-        <v>2.432729268313873</v>
+        <v>2.352577152499704</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.759939588981856</v>
+        <v>-2.550193967454966</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8272393403546976</v>
+        <v>0.7790129124442287</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3941711152978726</v>
       </c>
       <c r="E43" t="n">
-        <v>2.27326062801268</v>
+        <v>2.174770637131403</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.571228911754653</v>
+        <v>-2.413878525963805</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7407910133944581</v>
+        <v>0.6915307699369012</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2958908869126256</v>
       </c>
       <c r="E44" t="n">
-        <v>1.909392320916293</v>
+        <v>1.848389884589982</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.494782064051729</v>
+        <v>-2.336261850402878</v>
       </c>
       <c r="G44" t="n">
-        <v>0.812117577016083</v>
+        <v>0.7416784479791265</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.206376327614528</v>
       </c>
       <c r="E45" t="n">
-        <v>1.800542217419774</v>
+        <v>1.721300713175989</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.532370865439034</v>
+        <v>-2.361993793834202</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7215632640599755</v>
+        <v>0.6310241991207869</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1241323025720231</v>
       </c>
       <c r="E46" t="n">
-        <v>1.579529531231317</v>
+        <v>1.524185329023199</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.453783196160724</v>
+        <v>-2.277958922991854</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6488954848701817</v>
+        <v>0.5770846442312189</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.04805505125282097</v>
       </c>
       <c r="E47" t="n">
-        <v>1.403213661996989</v>
+        <v>1.367873028224176</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.360029239334396</v>
+        <v>-2.178019760582624</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5451248007696206</v>
+        <v>0.4888565687362285</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.02317845202182471</v>
       </c>
       <c r="E48" t="n">
-        <v>1.288796812483791</v>
+        <v>1.240245906773292</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.358390382475974</v>
+        <v>-2.177310422835566</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4984475713780918</v>
+        <v>0.4268672807549396</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.09060488257549977</v>
       </c>
       <c r="E49" t="n">
-        <v>1.164451674194487</v>
+        <v>1.145408730825059</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.316942003046206</v>
+        <v>-2.11771202390713</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4374774608476489</v>
+        <v>0.3781157111417907</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1543242962372554</v>
       </c>
       <c r="E50" t="n">
-        <v>1.045143260853769</v>
+        <v>1.015915252103325</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.280585851346608</v>
+        <v>-2.075664092452119</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3636166768141358</v>
+        <v>0.3293818292282673</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2146093449632506</v>
       </c>
       <c r="E51" t="n">
-        <v>0.793840084095974</v>
+        <v>0.8193585552904359</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.16801828132531</v>
+        <v>-1.987931272546648</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2833389173405564</v>
+        <v>0.2463118528965353</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2712736835982237</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6903341055691214</v>
+        <v>0.7310426512179938</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.138299286430084</v>
+        <v>-1.92951855941381</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2054154516792245</v>
+        <v>0.181241855576992</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3241505134789796</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5032031228946964</v>
+        <v>0.5807661254360701</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.114861864584686</v>
+        <v>-1.897033574249531</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2001603751283633</v>
+        <v>0.1657193743537539</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3733889360148346</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3409075002567754</v>
+        <v>0.4543381080356722</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.085550296701528</v>
+        <v>-1.869989081521846</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1307385937802226</v>
+        <v>0.11773020558654</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4185197825824317</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3007179971038156</v>
+        <v>0.4229887951714987</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.041324948430526</v>
+        <v>-1.833664645697439</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08305926471679663</v>
+        <v>0.07341336921402609</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4596878081488097</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2077605966813208</v>
+        <v>0.3511773446118592</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.067883334378844</v>
+        <v>-1.861714897621082</v>
       </c>
       <c r="G56" t="n">
-        <v>0.006949093227436722</v>
+        <v>0.009358279900591552</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4969866766017833</v>
       </c>
       <c r="E57" t="n">
-        <v>0.03089762859994922</v>
+        <v>0.1817718766450861</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.042524052481013</v>
+        <v>-1.817560300148583</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05135558793943257</v>
+        <v>0.03593069402447419</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5298107067570788</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1180456105826033</v>
+        <v>0.043685225508649</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.972041619076008</v>
+        <v>-1.794375385463359</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02460515298412405</v>
+        <v>-0.02206788296885213</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5581311167836227</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1996773939585633</v>
+        <v>-0.01640537940592316</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.057016377681224</v>
+        <v>-1.863198224706933</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.03238530113672228</v>
+        <v>-0.01863097995537683</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5822528609211258</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4260433539268376</v>
+        <v>-0.1827929598641469</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.122364498829364</v>
+        <v>-1.941001535994946</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.04734970494073588</v>
+        <v>-0.0340290373605583</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6023306556138716</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.518331061446263</v>
+        <v>-0.2505228212549885</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.102723223276047</v>
+        <v>-1.946906178066544</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.06169564917852696</v>
+        <v>-0.05029745157145925</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6192474645159924</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5230225712918091</v>
+        <v>-0.2726440342799638</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.072258295393158</v>
+        <v>-1.898735252937659</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1273042064556388</v>
+        <v>-0.1023486920458153</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6351978042272499</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7077870617404517</v>
+        <v>-0.4384204742200859</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.155985766214424</v>
+        <v>-1.95969072537186</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1190495400165306</v>
+        <v>-0.1072384261113044</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6517389132694181</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8174892244223877</v>
+        <v>-0.4987306505782874</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.161113979264522</v>
+        <v>-1.981785101887058</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1441727826124598</v>
+        <v>-0.1158474564636033</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6695524097931309</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9377643620357512</v>
+        <v>-0.5967015989636512</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.17861138363907</v>
+        <v>-2.00342874702214</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1467228609619435</v>
+        <v>-0.1138347182303347</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6899776155450908</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.069387073840012</v>
+        <v>-0.7031272677700966</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.225334967002032</v>
+        <v>-2.043196185066789</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2137080092064757</v>
+        <v>-0.1543810249791921</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7129974496496339</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.177411954660891</v>
+        <v>-0.7777949768589473</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.144282608268982</v>
+        <v>-1.974652689493166</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2151376632727731</v>
+        <v>-0.1786534282310578</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7371700009458028</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.289487318696054</v>
+        <v>-0.874444227137798</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.180205106367413</v>
+        <v>-2.017133664628668</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2482661147510206</v>
+        <v>-0.1993846320337243</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7626158361701473</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.38380240254499</v>
+        <v>-0.9766766912916005</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.218039095866772</v>
+        <v>-2.030902013985579</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2576643824590314</v>
+        <v>-0.2143502556790914</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7888194519924383</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.481080481041568</v>
+        <v>-1.024098023908762</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.167707221780169</v>
+        <v>-2.02740960819052</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.240622588830014</v>
+        <v>-0.2090073505507784</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8140435383855218</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.552446079586504</v>
+        <v>-1.068402661867741</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.198208744903662</v>
+        <v>-2.040690021006032</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3038951499151807</v>
+        <v>-0.2447182061743772</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8370549891427997</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.597800391030167</v>
+        <v>-1.126204844403154</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.257278952526035</v>
+        <v>-2.114889920935817</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.368442445214751</v>
+        <v>-0.2832694623895917</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8566472020737225</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.598162073991478</v>
+        <v>-1.138725296055439</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.208402959094829</v>
+        <v>-2.103092835206156</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4074889570194849</v>
+        <v>-0.3043074562926624</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8707941069224293</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.579595478670591</v>
+        <v>-1.130956126475022</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.269753050206886</v>
+        <v>-2.142153985107132</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3832952335349197</v>
+        <v>-0.2794172033952509</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8774962191615218</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.566665770244209</v>
+        <v>-1.110487798484034</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.199631689842515</v>
+        <v>-2.110356990466225</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4254303836467058</v>
+        <v>-0.3275771499519544</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8758443056608105</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.440546372706245</v>
+        <v>-1.007758858899358</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.183285205784991</v>
+        <v>-2.102233456972618</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3709845945954369</v>
+        <v>-0.2746482336237579</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8643139016155641</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.330209282599815</v>
+        <v>-0.9093469378647057</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.07839104779786</v>
+        <v>-2.036867038204175</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3955784260439488</v>
+        <v>-0.290957512520001</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.8414442329832185</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.232521337408462</v>
+        <v>-0.8387071449250991</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.054199154075325</v>
+        <v>-1.999194677684154</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3573870230280157</v>
+        <v>-0.2562853518089041</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8072606139406501</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.021209439583683</v>
+        <v>-0.621886443547932</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.970554022545419</v>
+        <v>-1.916196062071602</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3617668634077435</v>
+        <v>-0.2463235173955781</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7615534551765787</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9235660186017332</v>
+        <v>-0.5523701244948953</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.973325502100562</v>
+        <v>-1.928893390720143</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3347882421131467</v>
+        <v>-0.2458502189504216</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7040703644217897</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.6345422975904542</v>
+        <v>-0.3069990362391516</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.872557457491632</v>
+        <v>-1.848968165397724</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2859396951123947</v>
+        <v>-0.1939935431719482</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6358470852371982</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.4411065648804844</v>
+        <v>-0.1349172363428081</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.966928044122152</v>
+        <v>-1.915326925107236</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.245703837988002</v>
+        <v>-0.1490911829497562</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5582730101477946</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.213535401654956</v>
+        <v>0.07576278366085962</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.904626476754368</v>
+        <v>-1.854551379272676</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2242706154863985</v>
+        <v>-0.1262124484442598</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4726761965868378</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.01897619505841623</v>
+        <v>0.2544835701236058</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.757649011912975</v>
+        <v>-1.73013549018487</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2270823498062071</v>
+        <v>-0.1336986148306654</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3812502927582438</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2581601719630431</v>
+        <v>0.4768844357723409</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.649510075925544</v>
+        <v>-1.625321841727069</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1777483059467637</v>
+        <v>-0.08545876866530804</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2875811175797864</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4362893353693437</v>
+        <v>0.6113298604685921</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.501110885986651</v>
+        <v>-1.497744123851001</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1902364318031802</v>
+        <v>-0.08788564303808856</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1954983210360216</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6503696631458817</v>
+        <v>0.7923110129593666</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.439998054017849</v>
+        <v>-1.402054278796675</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1155790913658341</v>
+        <v>-0.04239653912486491</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1096271456194154</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8077200489367294</v>
+        <v>0.9433505495079021</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.343933717668</v>
+        <v>-1.300309141263595</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.03070740935498838</v>
+        <v>0.03059937738901942</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.03627253475327504</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8481303433746721</v>
+        <v>0.9879198930405897</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.105994512858431</v>
+        <v>-1.093478330650884</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.04766503393061463</v>
+        <v>0.01473717034883267</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.01910275553501906</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9040740976080341</v>
+        <v>1.010318010052809</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.087882918362397</v>
+        <v>-1.029190251638932</v>
       </c>
       <c r="G90" t="n">
-        <v>0.005709734412284668</v>
+        <v>0.06232135178668591</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05223206972249499</v>
       </c>
       <c r="E91" t="n">
-        <v>0.950298765857416</v>
+        <v>1.021062982615079</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8111295815259356</v>
+        <v>-0.7804505714855083</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.008964957070273605</v>
+        <v>0.05397092780132825</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.05993409793702371</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9209914674189951</v>
+        <v>0.9746919334032779</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5935659967644894</v>
+        <v>-0.5539589678578241</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04072596639125198</v>
+        <v>0.0216695287607511</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.04268159793470017</v>
       </c>
       <c r="E93" t="n">
-        <v>1.010416817202442</v>
+        <v>1.001006961001573</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3853000427993906</v>
+        <v>-0.361685743957736</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.004577797642424825</v>
+        <v>0.03960790578458823</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.00501081254276475</v>
       </c>
       <c r="E94" t="n">
-        <v>1.092751229198016</v>
+        <v>1.069413224422928</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1795426925777565</v>
+        <v>-0.1671759409360128</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0710725696628516</v>
+        <v>-0.03453588144293594</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04542305380502648</v>
       </c>
       <c r="E95" t="n">
-        <v>1.103514499380589</v>
+        <v>1.05459032221592</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.04333520704638016</v>
+        <v>-0.01184683226790818</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.03849365671435408</v>
+        <v>-0.01170106122616539</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.09844445975344412</v>
       </c>
       <c r="E96" t="n">
-        <v>1.106825148813977</v>
+        <v>1.060895682172141</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0510030537882722</v>
+        <v>0.06199809382800944</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09676547817086353</v>
+        <v>-0.07114149069932413</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1431382677568848</v>
       </c>
       <c r="E97" t="n">
-        <v>1.087551045508062</v>
+        <v>1.044643125898836</v>
       </c>
       <c r="F97" t="n">
-        <v>0.161051651414601</v>
+        <v>0.150230438767737</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09842202272891126</v>
+        <v>-0.07749503438900865</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1718230600160311</v>
       </c>
       <c r="E98" t="n">
-        <v>1.061892902478624</v>
+        <v>1.039080039406217</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1919026590858713</v>
+        <v>0.1818529960950936</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1092664123614917</v>
+        <v>-0.07655819622952363</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.182249695564738</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9868750989213203</v>
+        <v>0.9822836160667608</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2317981804726385</v>
+        <v>0.1973010669957684</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1169160374892659</v>
+        <v>-0.08735745173202475</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1772517687045165</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8846347057987201</v>
+        <v>0.88158693217701</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2807083294617421</v>
+        <v>0.2353155930154446</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.0817370326957914</v>
+        <v>-0.06057278521263378</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1645090655012461</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9173331631998602</v>
+        <v>0.9015478061649437</v>
       </c>
       <c r="F101" t="n">
-        <v>0.285581595668959</v>
+        <v>0.2299580497908896</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.170746416577696</v>
+        <v>-0.1229414438548599</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1536746535974622</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9191482871338624</v>
+        <v>0.8957346521948579</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2638531715598095</v>
+        <v>0.1896429029785198</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1279232759425381</v>
+        <v>-0.09521627965192347</v>
       </c>
     </row>
   </sheetData>
